--- a/myapp/files/9_MethodComparePercent/Scenario 308.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 308.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>4497</v>
+        <v>12341</v>
       </c>
       <c r="F2" t="n">
-        <v>4.08513653458331</v>
+        <v>2.55763009386198</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>3.54330708661417</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>16586</v>
+        <v>29917</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0669500917498</v>
+        <v>6.20019605526852</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -631,10 +631,10 @@
         <v>4.54545454545454</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>5.51181102362205</v>
       </c>
       <c r="K3" t="n">
         <v>7</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>14930</v>
+        <v>33597</v>
       </c>
       <c r="F4" t="n">
-        <v>13.5626169582675</v>
+        <v>6.96286348460262</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -669,16 +669,16 @@
         <v>6.06060606060606</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J4" t="n">
-        <v>11.6666666666667</v>
+        <v>6.2992125984252</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>4.54545454545454</v>
+        <v>6.06060606060606</v>
       </c>
     </row>
     <row r="5">
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>12615</v>
+        <v>26450</v>
       </c>
       <c r="F5" t="n">
-        <v>11.4596391780673</v>
+        <v>5.48167214833882</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -707,10 +707,10 @@
         <v>7.57575757575758</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>11.6666666666667</v>
+        <v>4.7244094488189</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>11759</v>
+        <v>28074</v>
       </c>
       <c r="F6" t="n">
-        <v>10.6820370269436</v>
+        <v>5.8182406008493</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -745,10 +745,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>4.7244094488189</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>11073</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.29484142527621</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.75590551181102</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>868</v>
+        <v>31726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.788503115859087</v>
+        <v>6.57510512582976</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4.54545454545454</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>1.66666666666667</v>
+        <v>5.11811023622047</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>6460</v>
+        <v>29478</v>
       </c>
       <c r="F9" t="n">
-        <v>5.86835268254574</v>
+        <v>6.10921480486698</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -859,16 +859,16 @@
         <v>9.09090909090909</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>6.66666666666667</v>
+        <v>7.8740157480315</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>6.06060606060606</v>
+        <v>4.54545454545454</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>7944</v>
+        <v>26393</v>
       </c>
       <c r="F10" t="n">
-        <v>7.21643865482095</v>
+        <v>5.4698590930475</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>6.06060606060606</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>7.08661417322835</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>8072</v>
+        <v>26136</v>
       </c>
       <c r="F11" t="n">
-        <v>7.33271561199833</v>
+        <v>5.41659672094455</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>6.66666666666667</v>
+        <v>5.90551181102362</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6742</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.39725646972024</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.36220472440945</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3960</v>
+        <v>37872</v>
       </c>
       <c r="F13" t="n">
-        <v>3.5973183626751</v>
+        <v>7.84884263145133</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>1.66666666666667</v>
+        <v>4.33070866141732</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>7461</v>
+        <v>32307</v>
       </c>
       <c r="F14" t="n">
-        <v>6.77767482422194</v>
+        <v>6.69551539116757</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>9.09090909090909</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>3.33333333333333</v>
+        <v>5.90551181102362</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>3642</v>
+        <v>18667</v>
       </c>
       <c r="F15" t="n">
-        <v>3.30844279718755</v>
+        <v>3.86867198461401</v>
       </c>
       <c r="G15" t="n">
         <v>12</v>
@@ -1087,10 +1087,10 @@
         <v>18.1818181818182</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>3.33333333333333</v>
+        <v>4.33070866141732</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>20329</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4.21311580731871</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.1496062992126</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3226</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.668577480171683</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.96850393700787</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1260</v>
+        <v>17383</v>
       </c>
       <c r="F18" t="n">
-        <v>1.1446012972148</v>
+        <v>3.60256737068331</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>1.66666666666667</v>
+        <v>4.33070866141732</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>15309</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.17273795534665</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>6.06060606060606</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.93700787401575</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>756</v>
+        <v>11201</v>
       </c>
       <c r="F20" t="n">
-        <v>0.686760778328882</v>
+        <v>2.32136898803565</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1277,10 +1277,10 @@
         <v>9.09090909090909</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>3.33333333333333</v>
+        <v>3.93700787401575</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>12241</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.53690543545616</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.75590551181102</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1264</v>
+        <v>3049</v>
       </c>
       <c r="F22" t="n">
-        <v>1.1482349521266</v>
+        <v>0.631894834793386</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.66666666666667</v>
+        <v>1.18110236220472</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2384</v>
+        <v>10333</v>
       </c>
       <c r="F23" t="n">
-        <v>2.16565832742864</v>
+        <v>2.14147895307316</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.33333333333333</v>
+        <v>1.96850393700787</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1296</v>
+        <v>11479</v>
       </c>
       <c r="F24" t="n">
-        <v>1.17730419142094</v>
+        <v>2.37898353840383</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.66666666666667</v>
+        <v>1.5748031496063</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1890</v>
+        <v>10401</v>
       </c>
       <c r="F25" t="n">
-        <v>1.71690194582221</v>
+        <v>2.15557172078911</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.33333333333333</v>
+        <v>2.36220472440945</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>2438</v>
+        <v>16793</v>
       </c>
       <c r="F26" t="n">
-        <v>2.21471266873785</v>
+        <v>3.48029188608899</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.33333333333333</v>
+        <v>2.36220472440945</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
